--- a/imageCreationExcel/back/darkyobi/darkyobi_7.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_7.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.423093450346545</v>
+        <v>0.7243657748416988</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8060893924032231</v>
+        <v>0.8618604344919973</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7513628032306808</v>
+        <v>24.84187114940536</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_3_sharpness0.42_contrast0.81_gamma0.75.jpg</t>
+          <t>1_2_gamma0.72_contrast0.86_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.54927007829538</v>
+        <v>0.9132847547516544</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.102002258365359</v>
+        <v>0.8128322875691967</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3442980064686443</v>
+        <v>22.44864340650508</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_I_brightness16.0_contrast1.1_sharpness0.34.jpg</t>
+          <t>2_7_sharpness0.91_contrast0.81_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6697248137787644</v>
+        <v>0.8647569177311052</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.241178430551789</v>
+        <v>0.6704036070221964</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.034614645453068</v>
+        <v>17.53458820366243</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_sharpness0.67_brightness6.2_contrast1.0.jpg</t>
+          <t>3_I_sharpness0.86_gamma0.67_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6293867308670635</v>
+        <v>0.9496024116913186</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9938973185350143</v>
+        <v>0.9512262920971802</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>21.92040715267838</v>
+        <v>16.09664121235512</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_gamma0.63_contrast0.99_equalization22.0.jpg</t>
+          <t>4_B_sharpness0.95_gamma0.95_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,24 +654,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5799293389637629</v>
+        <v>0.5613047575479898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8704479512889345</v>
+        <v>0.6739022009273761</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13.26159248794319</v>
+        <v>30.37336124657281</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_1_sharpness0.58_contrast0.87_equalization13.0.jpg</t>
+          <t>5_I_gamma0.56_sharpness0.67_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9445477397227255</v>
+        <v>16.39883697668871</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5424513139484379</v>
+        <v>0.2187973936188343</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.07845059492023</v>
+        <v>0.9138384400238638</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_contrast0.94_gamma0.54_equalization14.0.jpg</t>
+          <t>6_0_brightness16.0_sharpness0.22_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -738,16 +738,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.854106490983948</v>
+        <v>1.076629457086635</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8733935014676873</v>
+        <v>0.7488528246169348</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>26.42084505972145</v>
+        <v>16.3919119036806</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_gamma0.85_sharpness0.87_equalization26.0.jpg</t>
+          <t>7_S_contrast1.1_sharpness0.75_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,30 +789,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.183785796064748</v>
+        <v>1.00931248742616</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5941041168421342</v>
+        <v>1.021786022229387</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.22498659116445</v>
+        <v>0.4045797785704367</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_1_contrast1.2_sharpness0.59_brightness20.0.jpg</t>
+          <t>8_3_contrast1.0_gamma1.0_sharpness0.4.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9493702164359102</v>
+        <v>0.6509692052780522</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8505851445345097</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>5.452342409373607</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H10" t="n">
-        <v>0.1155504309360313</v>
+        <v>0.9727661572761914</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_contrast0.95_brightness5.5_sharpness0.12.jpg</t>
+          <t>9_7_sharpness0.65_gamma0.85_brightness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.171489421645418</v>
+        <v>0.72402686976404</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5037457535290708</v>
+        <v>1.146149971288672</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.398140519762874</v>
+        <v>18.53892627632625</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_contrast1.2_gamma0.5_equalization4.4.jpg</t>
+          <t>10_2_gamma0.72_contrast1.1_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9808152937171799</v>
+        <v>0.838516232837054</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>26.0886667504458</v>
+        <v>0.6254401015919229</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7399004921298414</v>
+        <v>28.85414796576957</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_contrast0.98_brightness26.0_gamma0.74.jpg</t>
+          <t>11_S_contrast0.84_gamma0.63_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.136880065712713</v>
+        <v>1.048069706585705</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.3080280292059844</v>
+        <v>20.8125439072172</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.194967142143036</v>
+        <v>0.8450928260732904</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_contrast1.1_sharpness0.31_brightness2.2.jpg</t>
+          <t>12_E_contrast1.0_brightness21.0_gamma0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7299170134316987</v>
+        <v>0.5254424596351793</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.165806197657389</v>
+        <v>0.4774215381862873</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7024523693744554</v>
+        <v>10.74348951719993</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_sharpness0.73_contrast1.2_gamma0.7.jpg</t>
+          <t>13_3_gamma0.53_sharpness0.48_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,24 +1032,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.06865792634348</v>
+        <v>0.9142891101134526</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6841223622690089</v>
+        <v>1.084208196076004</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25.51212222892354</v>
+        <v>28.11767653677268</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_contrast1.1_gamma0.68_equalization26.0.jpg</t>
+          <t>14_I_sharpness0.91_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9532404314770546</v>
+        <v>0.9163873589132761</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20.13031046319472</v>
+        <v>22.8977117928091</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1625328161679244</v>
+        <v>1.101574120943446</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_contrast0.95_brightness20.0_sharpness0.16.jpg</t>
+          <t>15_P_gamma0.92_brightness23.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.098484452480697</v>
+        <v>21.59032730988222</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>28.77833935003462</v>
+        <v>0.5844422891488684</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.961577087137901</v>
+        <v>0.8904247180390266</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_contrast1.1_brightness29.0_gamma0.96.jpg</t>
+          <t>16_1_brightness22.0_gamma0.58_sharpness0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.147827307495636</v>
+        <v>1.133053233447649</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5259318436049907</v>
+        <v>1.006194825613311</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>29.17367594092772</v>
+        <v>31.73502613272708</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast1.1_gamma0.53_brightness29.0.jpg</t>
+          <t>17_2_contrast1.1_gamma1.0_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5012033123742389</v>
+        <v>29.88845780217837</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1419612186192235</v>
+        <v>0.7032827174506864</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10.94631652573423</v>
+        <v>0.6097216355103309</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_9_gamma0.5_sharpness0.14_brightness11.0.jpg</t>
+          <t>18_2_brightness30.0_gamma0.7_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02859644288566676</v>
+        <v>1.011608201677161</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.867131847927143</v>
+        <v>16.60441994193699</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.075264525252814</v>
+        <v>1.076568329851352</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_sharpness0.029_brightness4.9_gamma1.1.jpg</t>
+          <t>19_9_gamma1.0_brightness17.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7904981655799211</v>
+        <v>0.8310391217767006</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6819116842212359</v>
+        <v>11.98853053852027</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11.5686032952938</v>
+        <v>0.260330339643423</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_sharpness0.79_gamma0.68_equalization12.0.jpg</t>
+          <t>20_P_gamma0.83_brightness12.0_sharpness0.26.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.009524424043450108</v>
+        <v>0.4392106989986546</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28.45473662471268</v>
+        <v>0.9491095924338104</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.068622235419103</v>
+        <v>22.48392501504428</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_B_sharpness0.0095_brightness28.0_contrast1.1.jpg</t>
+          <t>21_E_sharpness0.44_contrast0.95_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7550733918818067</v>
+        <v>1.033760809434275</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8921114032199158</v>
+        <v>1.098823065520123</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5.855109292955798</v>
+        <v>20.59401789535142</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_9_gamma0.76_contrast0.89_equalization5.9.jpg</t>
+          <t>22_P_gamma1.0_contrast1.1_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5259428983613316</v>
+        <v>0.930942371155868</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.087996186259022</v>
+        <v>1.067007416059814</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12.72763427259464</v>
+        <v>17.73936950392165</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_8_gamma0.53_contrast1.1_brightness13.0.jpg</t>
+          <t>23_7_sharpness0.93_contrast1.1_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.145055843125681</v>
+        <v>0.7679585989136091</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.09425165612870612</v>
+        <v>12.1752561837731</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.18759480439977</v>
+        <v>0.9660323534333216</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_contrast1.1_sharpness0.094_equalization10.0.jpg</t>
+          <t>24_8_sharpness0.77_brightness12.0_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6557539833487592</v>
+        <v>0.9651847212887673</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9584120967987872</v>
+        <v>1.01978137455856</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13.17226231068949</v>
+        <v>12.66194527431933</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_sharpness0.66_contrast0.96_equalization13.0.jpg</t>
+          <t>25_E_gamma0.97_contrast1.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.4920113954984114</v>
+        <v>27.99939467034419</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9458683710985143</v>
+        <v>0.8716930745443416</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>31.54200837096759</v>
+        <v>0.1303085702587887</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_sharpness0.49_contrast0.95_equalization32.0.jpg</t>
+          <t>26_S_brightness28.0_contrast0.87_sharpness0.13.jpg</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1583,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8414552952146541</v>
+        <v>25.69911067592015</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9437143279884029</v>
+        <v>0.9253500277427746</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>25.68140860355761</v>
+        <v>0.3858958051833322</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_contrast0.84_sharpness0.94_equalization26.0.jpg</t>
+          <t>27_1_brightness26.0_gamma0.93_sharpness0.39.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,34 +1625,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1847967606427302</v>
+        <v>0.9369429267633903</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5599427687814157</v>
+        <v>1.915354167666939</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.025082356592128</v>
+        <v>0.5505000047029329</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_sharpness0.18_gamma0.56_contrast1.0.jpg</t>
+          <t>28_I_contrast0.94_brightness1.9_sharpness0.55.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.084707049754003</v>
+        <v>0.1054698936539843</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.918025743591383</v>
+        <v>11.77387160946536</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.06294891103504</v>
+        <v>0.9242199793411032</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_contrast1.1_sharpness0.92_equalization8.1.jpg</t>
+          <t>29_3_sharpness0.11_brightness12.0_gamma0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.973502811977201</v>
+        <v>0.9801573783232019</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9070938774654337</v>
+        <v>1.066269739340876</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5357362357873726</v>
+        <v>0.9753680138097145</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_sharpness0.97_contrast0.91_gamma0.54.jpg</t>
+          <t>30_E_sharpness0.98_contrast1.1_gamma0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>28.84602201525263</v>
+        <v>1.189437886838529</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9493003669207354</v>
+        <v>0.7413076090478243</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.8994009192771703</v>
+        <v>6.268639378726482</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_0_brightness29.0_gamma0.95_contrast0.9.jpg</t>
+          <t>31_I_contrast1.2_gamma0.74_equalization6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.4578103851760367</v>
+        <v>1.196682209576752</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.100330041198329</v>
+        <v>0.6244374298917647</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20.30046652841516</v>
+        <v>26.73068166304959</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_8_sharpness0.46_contrast1.1_brightness20.0.jpg</t>
+          <t>32_2_contrast1.2_gamma0.62_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.2373223742455095</v>
+        <v>1.183967279838283</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.148648961158798</v>
+        <v>23.74326817031946</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>27.22637843115287</v>
+        <v>0.2845743798254191</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_1_sharpness0.24_contrast1.1_equalization27.0.jpg</t>
+          <t>33_2_contrast1.2_brightness24.0_sharpness0.28.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1482898727240528</v>
+        <v>10.75829033978256</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.818565498828196</v>
+        <v>0.5345585726308048</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.143403694404823</v>
+        <v>0.7078941677361847</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_sharpness0.15_brightness6.8_contrast1.1.jpg</t>
+          <t>34_T_brightness11.0_sharpness0.53_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7511162610077315</v>
+        <v>1.071306973801871</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.870103129551115</v>
+        <v>0.04812216672466552</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3577388067522324</v>
+        <v>11.82200874456806</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_gamma0.75_brightness4.9_sharpness0.36.jpg</t>
+          <t>35_2_contrast1.1_sharpness0.048_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.125764984817227</v>
+        <v>0.9364036024387807</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5981919459623837</v>
+        <v>0.1890946008221734</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9.132287629015257</v>
+        <v>17.33890419376853</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_contrast1.1_sharpness0.6_equalization9.1.jpg</t>
+          <t>36_0_gamma0.94_sharpness0.19_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,30 +2007,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8999552147936399</v>
+        <v>0.8783784419550427</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.084564352963073</v>
+        <v>0.7515097553072629</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>12.55817597413142</v>
+        <v>19.42983877173291</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_gamma0.9_contrast1.1_brightness13.0.jpg</t>
+          <t>37_9_gamma0.88_sharpness0.75_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9352639037581186</v>
+        <v>0.5284704237278349</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5013187089545356</v>
+        <v>1.081953030027638</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.6340584940562874</v>
+        <v>31.26822047847534</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_contrast0.94_gamma0.5_sharpness0.63.jpg</t>
+          <t>38_T_gamma0.53_contrast1.1_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,30 +2091,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8489755598942428</v>
+        <v>0.6235121332649449</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1288742815414999</v>
+        <v>0.9643925836390406</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4.882954208727661</v>
+        <v>0.3305548370734668</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_gamma0.85_sharpness0.13_equalization4.9.jpg</t>
+          <t>39_7_gamma0.62_contrast0.96_sharpness0.33.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6014330877922152</v>
+        <v>0.9941348657792309</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9457720247243219</v>
+        <v>0.4860269233878607</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>26.12163378268269</v>
+        <v>12.12442754576927</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_sharpness0.6_gamma0.95_equalization26.0.jpg</t>
+          <t>40_C_gamma0.99_sharpness0.49_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.0498403897592</v>
+        <v>0.4349781132172141</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9079523296150547</v>
+        <v>1.173389799472222</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.581002895409538</v>
+        <v>0.8665339857776321</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_contrast1.0_gamma0.91_equalization4.6.jpg</t>
+          <t>41_8_sharpness0.43_contrast1.2_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7258127122764824</v>
+        <v>0.8583232356879704</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.044665223161403</v>
+        <v>0.7670637121367121</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.9492870665435664</v>
+        <v>10.26431833779273</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_1_gamma0.73_contrast1.0_sharpness0.95.jpg</t>
+          <t>42_S_contrast0.86_gamma0.77_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6604655735476989</v>
+        <v>0.7128396817635787</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9.027973812100836</v>
+        <v>0.9985851710122819</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.7154418446284397</v>
+        <v>29.89557827126976</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_B_gamma0.66_brightness9.0_sharpness0.72.jpg</t>
+          <t>43_P_sharpness0.71_gamma1.0_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5718758416802726</v>
+        <v>15.23618220409306</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>24.54404963495292</v>
+        <v>1.059094109721439</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.3921384152817898</v>
+        <v>0.8098370983216454</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_1_gamma0.57_brightness25.0_sharpness0.39.jpg</t>
+          <t>44_3_brightness15.0_gamma1.1_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6706802417237334</v>
+        <v>10.58798591150778</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.114953037564415</v>
+        <v>0.7713610349849138</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8824347072325287</v>
+        <v>0.9807200780210142</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_sharpness0.67_brightness5.1_gamma0.88.jpg</t>
+          <t>45_S_brightness11.0_sharpness0.77_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8656871717420314</v>
+        <v>0.9824786748133125</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.4002029949256484</v>
+        <v>0.6566235088547818</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>30.41546355396409</v>
+        <v>13.23104488297844</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_8_contrast0.87_sharpness0.4_equalization30.0.jpg</t>
+          <t>46_7_sharpness0.98_gamma0.66_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5474468067172519</v>
+        <v>0.5843167580216777</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8993467986307182</v>
+        <v>0.7872313274349139</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>11.58966534772511</v>
+        <v>0.9787969268983623</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_8_gamma0.55_contrast0.9_brightness12.0.jpg</t>
+          <t>47_P_gamma0.58_sharpness0.79_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.2469583709993279</v>
+        <v>0.8125650856297706</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.019826942511972</v>
+        <v>6.51512601492466</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.6659392549156304</v>
+        <v>0.9260426676404191</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_sharpness0.25_contrast1.0_gamma0.67.jpg</t>
+          <t>48_3_gamma0.81_brightness6.5_sharpness0.93.jpg</t>
         </is>
       </c>
     </row>
